--- a/test_dev_cfb.xlsx
+++ b/test_dev_cfb.xlsx
@@ -436,7 +436,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="E292:E297 B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="B244:B274 B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -549,8 +549,8 @@
   </sheetPr>
   <dimension ref="A1:K302"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E292" activeCellId="0" sqref="E292:E297"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A223" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B244" activeCellId="0" sqref="B244:B274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9011,12 +9011,12 @@
         <v>12.4980655765257</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C244" s="6" t="n">
         <v>1</v>
@@ -9046,12 +9046,12 @@
         <v>5.70871429787817</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C245" s="6" t="n">
         <v>1</v>
@@ -9081,12 +9081,12 @@
         <v>4.25468233733065</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C246" s="6" t="n">
         <v>1</v>
@@ -9116,12 +9116,12 @@
         <v>5.48522889734512</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C247" s="6" t="n">
         <v>2</v>
@@ -9151,12 +9151,12 @@
         <v>4.66831233557443</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C248" s="6" t="n">
         <v>2</v>
@@ -9186,12 +9186,12 @@
         <v>6.91834740288266</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C249" s="6" t="n">
         <v>2</v>
@@ -9221,12 +9221,12 @@
         <v>4.84824812324127</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C250" s="6" t="n">
         <v>3</v>
@@ -9256,12 +9256,12 @@
         <v>6.16661824934824</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C251" s="6" t="n">
         <v>3</v>
@@ -9291,12 +9291,12 @@
         <v>4.6226756059146</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C252" s="6" t="n">
         <v>3</v>
@@ -9326,12 +9326,12 @@
         <v>3.09384641681677</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C253" s="6" t="n">
         <v>4</v>
@@ -9361,12 +9361,12 @@
         <v>5.89600658379574</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C254" s="6" t="n">
         <v>4</v>
@@ -9396,12 +9396,12 @@
         <v>4.64575256458394</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C255" s="6" t="n">
         <v>4</v>
@@ -9431,12 +9431,12 @@
         <v>5.81715127133869</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C256" s="6" t="n">
         <v>5</v>
@@ -9466,12 +9466,12 @@
         <v>5.59118747757802</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C257" s="6" t="n">
         <v>5</v>
@@ -9501,12 +9501,12 @@
         <v>5.46824681936964</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C258" s="6" t="n">
         <v>5</v>
@@ -9536,12 +9536,12 @@
         <v>4.86281342919637</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C259" s="6" t="n">
         <v>6</v>
@@ -9571,12 +9571,12 @@
         <v>5.47654831676753</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C260" s="6" t="n">
         <v>6</v>
@@ -9606,12 +9606,12 @@
         <v>5.40999794313038</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C261" s="6" t="n">
         <v>6</v>
@@ -9641,12 +9641,12 @@
         <v>6.3404327154022</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C262" s="6" t="n">
         <v>7</v>
@@ -9676,12 +9676,12 @@
         <v>4.47840777078935</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C263" s="6" t="n">
         <v>7</v>
@@ -9711,12 +9711,12 @@
         <v>5.41511157604785</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C264" s="6" t="n">
         <v>7</v>
@@ -9746,12 +9746,12 @@
         <v>4.97798478271356</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C265" s="6" t="n">
         <v>8</v>
@@ -9781,12 +9781,12 @@
         <v>3.94898372592379</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C266" s="6" t="n">
         <v>8</v>
@@ -9816,12 +9816,12 @@
         <v>3.54220014892125</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C267" s="6" t="n">
         <v>8</v>
@@ -9851,12 +9851,12 @@
         <v>3.89970629859621</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C268" s="6" t="n">
         <v>9</v>
@@ -9886,12 +9886,12 @@
         <v>5.92567695657965</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C269" s="6" t="n">
         <v>9</v>
@@ -9921,12 +9921,12 @@
         <v>4.45627694685701</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C270" s="6" t="n">
         <v>9</v>
@@ -9956,12 +9956,12 @@
         <v>7.1845568323613</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C271" s="6" t="n">
         <v>10</v>
@@ -9991,12 +9991,12 @@
         <v>4.79846185426553</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C272" s="6" t="n">
         <v>10</v>
@@ -10026,12 +10026,12 @@
         <v>5.04364334681858</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C273" s="6" t="n">
         <v>10</v>
@@ -10066,7 +10066,7 @@
         <v>31</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C274" s="6" t="n">
         <v>1</v>
@@ -11095,7 +11095,7 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="1" sqref="E292:E297 J4"/>
+      <selection pane="topLeft" activeCell="J4" activeCellId="1" sqref="B244:B274 J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
